--- a/functional_tests/test-new-hello/test-new-hello.xlsx
+++ b/functional_tests/test-new-hello/test-new-hello.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Test Scenarios" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Sheet1" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
   <si>
     <t>scenario</t>
   </si>
@@ -261,6 +261,132 @@
   </si>
   <si>
     <t>The user should be automatically logged out. The attempted action should fail, and the user should be redirected to the login page with a message indicating their session has expired.</t>
+  </si>
+  <si>
+    <t>&lt;Tier 2 User Successfully Sends International Remittance-Verify a Tier 2 (Verified) user can successfully initiate an international money transfer.&gt;</t>
+  </si>
+  <si>
+    <t>TC-012</t>
+  </si>
+  <si>
+    <t>This test case validates the happy path for the international remittance feature as per US-401.</t>
+  </si>
+  <si>
+    <t>User must be logged in as a 'Tier 2 (Verified)' user with sufficient funds in their account. A beneficiary must be set up.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in as a Tier 2 user.
+2. Navigate to the 'International Transfer' or 'Send Money' section.
+3. Select a pre-saved beneficiary.
+4. Enter the amount to send.
+5. Review the exchange rate and fees.
+6. Confirm the transaction.</t>
+  </si>
+  <si>
+    <t>The transfer is initiated successfully. The user sees a confirmation screen with a transaction reference number. The account balance is updated, and the transfer appears in the international transfer history with a 'Pending' status.</t>
+  </si>
+  <si>
+    <t>&lt;Tier 1 User Blocked from International Remittance-Verify a Tier 1 (Unverified) user is not able to access or use the international remittance feature.&gt;</t>
+  </si>
+  <si>
+    <t>TC-013</t>
+  </si>
+  <si>
+    <t>This negative test case enforces the business rule in US-401 that only verified users can send money internationally.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in as a Tier 1 user.
+2. Attempt to navigate to the 'International Transfer' or 'Send Money' section.</t>
+  </si>
+  <si>
+    <t>The 'International Transfer' option should be disabled or not visible. If accessed directly, the user should be redirected or shown a message stating they need to be a Tier 2 user to access this feature.</t>
+  </si>
+  <si>
+    <t>&lt;User Adds and Saves a New Beneficiary-Verify a user can add and save the details of a new international beneficiary.&gt;</t>
+  </si>
+  <si>
+    <t>TC-014</t>
+  </si>
+  <si>
+    <t>This test case validates the beneficiary management feature described in US-402.</t>
+  </si>
+  <si>
+    <t>User must be logged in as a Tier 2 user.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in as a Tier 2 user.
+2. Navigate to the 'Beneficiaries' or 'Recipients' management page.
+3. Click 'Add New Beneficiary'.
+4. Fill in all required fields (Full Name, Country, Bank Account/Mobile Money details).
+5. Save the beneficiary.</t>
+  </si>
+  <si>
+    <t>The new beneficiary is saved successfully and appears in the list of saved beneficiaries. A confirmation message is displayed.</t>
+  </si>
+  <si>
+    <t>&lt;User Deletes an Existing Beneficiary-Verify a user can delete a previously saved beneficiary.&gt;</t>
+  </si>
+  <si>
+    <t>TC-015</t>
+  </si>
+  <si>
+    <t>This test case validates the beneficiary deletion functionality from US-402.</t>
+  </si>
+  <si>
+    <t>User must be logged in as a Tier 2 user and have at least one saved beneficiary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in as a Tier 2 user.
+2. Navigate to the 'Beneficiaries' management page.
+3. Select a beneficiary from the list.
+4. Click the 'Delete' or 'Remove' option.
+5. Confirm the deletion in the confirmation prompt.</t>
+  </si>
+  <si>
+    <t>The beneficiary is successfully removed from the list of saved beneficiaries.</t>
+  </si>
+  <si>
+    <t>&lt;Verify Display of Exchange Rate and Fees Before Transfer Confirmation-Verify that the exchange rate and all applicable fees are clearly displayed to the user before they confirm an international transfer.&gt;</t>
+  </si>
+  <si>
+    <t>TC-016</t>
+  </si>
+  <si>
+    <t>This test case validates the transparency requirement of US-403.</t>
+  </si>
+  <si>
+    <t>User is logged in as a Tier 2 user and is in the process of initiating an international transfer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in as a Tier 2 user.
+2. Navigate to the 'International Transfer' section.
+3. Select a beneficiary and enter a sending amount.
+4. Proceed to the confirmation/review screen.</t>
+  </si>
+  <si>
+    <t>The confirmation screen must clearly display the send amount, the exchange rate being used, the calculated recipient amount, a breakdown of all transaction fees, and the total amount to be debited. The 'Confirm' button should be present.</t>
+  </si>
+  <si>
+    <t>&lt;Verify International Transfer History and Pagination-Verify the user can view a paginated history of their international transfers with correct statuses.&gt;</t>
+  </si>
+  <si>
+    <t>TC-017</t>
+  </si>
+  <si>
+    <t>This test case validates the requirements of US-404 for viewing transfer history.</t>
+  </si>
+  <si>
+    <t>User must be logged in and have a history of more than 25 international transfers with various statuses (Completed, Failed, Pending).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Log in to the platform.
+2. Navigate to the 'International Transfer History' page.
+3. Observe the list of transactions and their statuses.
+4. Verify the number of items on the first page.
+5. Click the 'Next' page button.</t>
+  </si>
+  <si>
+    <t>The page displays a list of past international transfers with their status. The first page shows a maximum of 25 transactions. Clicking 'Next' loads the subsequent set of transactions.</t>
   </si>
 </sst>
 </file>
@@ -637,12 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F18"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="6" width="50" customWidth="1"/>
+    <col min="1" max="6" width="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -885,6 +1009,126 @@
         <v>70</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
